--- a/curriculum_Excel/Bカリキュラム問題.xlsx
+++ b/curriculum_Excel/Bカリキュラム問題.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smba/Desktop/新カリキュラム作成課題/新カリキュラムエクセル/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smba/Desktop/ドラ用/新カリキュラム作成課題/新カリキュラムエクセル/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF234259-27D8-E645-9E57-58BB70603BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE33E317-7D7C-264C-A35E-4D2B0A4BBC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{3319C69D-1188-A141-84CF-D86B3A2B96B7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{3319C69D-1188-A141-84CF-D86B3A2B96B7}"/>
   </bookViews>
   <sheets>
     <sheet name="問題をするにあたって" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="137">
   <si>
     <t>①.処理の概要と詳細を必ずクラスやメソッドごとに書く</t>
   </si>
@@ -273,60 +272,6 @@
     <t>for文を使用して下記の通りに出力してください</t>
   </si>
   <si>
-    <t>※この行は改行しているとする</t>
-  </si>
-  <si>
-    <t>01 * 01 = 001 || 02 * 01 = 002 || 03 * 01 = 003 || 04 * 01 = 004 || 05 * 01 = 005 || 06 * 01 = 006 || 07 * 01 = 007 || 08 * 01 = 008 || 09 * 01 = 009 || 010 * 01 = 010 || 011 * 01 = 011 || 012 * 01 = 012 || 013 * 01 = 013 || 014 * 01 = 014 || 015 * 01 = 015 || 016 * 01 = 016 || 017 * 01 = 017 || 018 * 01 = 018 || 019 * 01 = 019 || 020 * 01 = 020</t>
-  </si>
-  <si>
-    <t>01 * 02 = 002 || 02 * 02 = 004 || 03 * 02 = 006 || 04 * 02 = 008 || 05 * 02 = 010 || 06 * 02 = 012 || 07 * 02 = 014 || 08 * 02 = 016 || 09 * 02 = 018 || 010 * 02 = 020 || 011 * 02 = 022 || 012 * 02 = 024 || 013 * 02 = 026 || 014 * 02 = 028 || 015 * 02 = 030 || 016 * 02 = 032 || 017 * 02 = 034 || 018 * 02 = 036 || 019 * 02 = 038 || 020 * 02 = 040</t>
-  </si>
-  <si>
-    <t>01 * 03 = 003 || 02 * 03 = 006 || 03 * 03 = 009 || 04 * 03 = 012 || 05 * 03 = 015 || 06 * 03 = 018 || 07 * 03 = 021 || 08 * 03 = 024 || 09 * 03 = 027 || 010 * 03 = 030 || 011 * 03 = 033 || 012 * 03 = 036 || 013 * 03 = 039 || 014 * 03 = 042 || 015 * 03 = 045 || 016 * 03 = 048 || 017 * 03 = 051 || 018 * 03 = 054 || 019 * 03 = 057 || 020 * 03 = 060</t>
-  </si>
-  <si>
-    <t>01 * 04 = 004 || 02 * 04 = 008 || 03 * 04 = 012 || 04 * 04 = 016 || 05 * 04 = 020 || 06 * 04 = 024 || 07 * 04 = 028 || 08 * 04 = 032 || 09 * 04 = 036 || 010 * 04 = 040 || 011 * 04 = 044 || 012 * 04 = 048 || 013 * 04 = 052 || 014 * 04 = 056 || 015 * 04 = 060 || 016 * 04 = 064 || 017 * 04 = 068 || 018 * 04 = 072 || 019 * 04 = 076 || 020 * 04 = 080</t>
-  </si>
-  <si>
-    <t>01 * 05 = 005 || 02 * 05 = 010 || 03 * 05 = 015 || 04 * 05 = 020 || 05 * 05 = 025 || 06 * 05 = 030 || 07 * 05 = 035 || 08 * 05 = 040 || 09 * 05 = 045 || 010 * 05 = 050 || 011 * 05 = 055 || 012 * 05 = 060 || 013 * 05 = 065 || 014 * 05 = 070 || 015 * 05 = 075 || 016 * 05 = 080 || 017 * 05 = 085 || 018 * 05 = 090 || 019 * 05 = 095 || 020 * 05 = 100</t>
-  </si>
-  <si>
-    <t>01 * 06 = 006 || 02 * 06 = 012 || 03 * 06 = 018 || 04 * 06 = 024 || 05 * 06 = 030 || 06 * 06 = 036 || 07 * 06 = 042 || 08 * 06 = 048 || 09 * 06 = 054 || 010 * 06 = 060 || 011 * 06 = 066 || 012 * 06 = 072 || 013 * 06 = 078 || 014 * 06 = 084 || 015 * 06 = 090 || 016 * 06 = 096 || 017 * 06 = 102 || 018 * 06 = 108 || 019 * 06 = 114 || 020 * 06 = 120</t>
-  </si>
-  <si>
-    <t>01 * 07 = 007 || 02 * 07 = 014 || 03 * 07 = 021 || 04 * 07 = 028 || 05 * 07 = 035 || 06 * 07 = 042 || 07 * 07 = 049 || 08 * 07 = 056 || 09 * 07 = 063 || 010 * 07 = 070 || 011 * 07 = 077 || 012 * 07 = 084 || 013 * 07 = 091 || 014 * 07 = 098 || 015 * 07 = 105 || 016 * 07 = 112 || 017 * 07 = 119 || 018 * 07 = 126 || 019 * 07 = 133 || 020 * 07 = 140</t>
-  </si>
-  <si>
-    <t>01 * 08 = 008 || 02 * 08 = 016 || 03 * 08 = 024 || 04 * 08 = 032 || 05 * 08 = 040 || 06 * 08 = 048 || 07 * 08 = 056 || 08 * 08 = 064 || 09 * 08 = 072 || 010 * 08 = 080 || 011 * 08 = 088 || 012 * 08 = 096 || 013 * 08 = 104 || 014 * 08 = 112 || 015 * 08 = 120 || 016 * 08 = 128 || 017 * 08 = 136 || 018 * 08 = 144 || 019 * 08 = 152 || 020 * 08 = 160</t>
-  </si>
-  <si>
-    <t>01 * 09 = 009 || 02 * 09 = 018 || 03 * 09 = 027 || 04 * 09 = 036 || 05 * 09 = 045 || 06 * 09 = 054 || 07 * 09 = 063 || 08 * 09 = 072 || 09 * 09 = 081 || 010 * 09 = 090 || 011 * 09 = 099 || 012 * 09 = 108 || 013 * 09 = 117 || 014 * 09 = 126 || 015 * 09 = 135 || 016 * 09 = 144 || 017 * 09 = 153 || 018 * 09 = 162 || 019 * 09 = 171 || 020 * 09 = 180</t>
-  </si>
-  <si>
-    <t>コンソールにユーザー名を入力できるようにしてください</t>
-  </si>
-  <si>
-    <t>ユーザー名の文字数が10文字より大きい場合「名前を10文字以内にしてください」と出力してください</t>
-  </si>
-  <si>
-    <t>ユーザー名の文字数が0文字以下もしくはnullの場合「名前を入力してください」と出力してください</t>
-  </si>
-  <si>
-    <t>ユーザー名が正常な値だった場合「ユーザー名「 入力したユーザー名 」を登録しました」と出力してください</t>
-  </si>
-  <si>
-    <t>「0はグー、1：チョキ、2：パー」とすること</t>
-  </si>
-  <si>
-    <t>じゃんけんに勝つまでループすること</t>
-  </si>
-  <si>
-    <t>一回ごとに自分の手と相手の手を表示すること</t>
-  </si>
-  <si>
-    <t>条件分岐の設定</t>
-  </si>
-  <si>
     <t>じゃんけんを行った回数を表示してください</t>
   </si>
   <si>
@@ -411,38 +356,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>-------------------課題4-------------------</t>
-  </si>
-  <si>
-    <t>-------------------課題5-------------------</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>01 * 01 = 01 || 01 * 02 = 02 || 01 * 03 = 03 || 01 * 04 = 04 || 01 * 05 = 05 || 01 * 06 = 06 || 01 * 07 = 07 || 01 * 08 = 08 || 01 * 09 = 09</t>
-  </si>
-  <si>
-    <t>02 * 01 = 02 || 02 * 02 = 04 || 02 * 03 = 06 || 02 * 04 = 08 || 02 * 05 = 10 || 02 * 06 = 12 || 02 * 07 = 14 || 02 * 08 = 16 || 02 * 09 = 18</t>
-  </si>
-  <si>
-    <t>03 * 01 = 03 || 03 * 02 = 06 || 03 * 03 = 09 || 03 * 04 = 12 || 03 * 05 = 15 || 03 * 06 = 18 || 03 * 07 = 21 || 03 * 08 = 24 || 03 * 09 = 27</t>
-  </si>
-  <si>
-    <t>04 * 01 = 04 || 04 * 02 = 08 || 04 * 03 = 12 || 04 * 04 = 16 || 04 * 05 = 20 || 04 * 06 = 24 || 04 * 07 = 28 || 04 * 08 = 32 || 04 * 09 = 36</t>
-  </si>
-  <si>
-    <t>05 * 01 = 05 || 05 * 02 = 10 || 05 * 03 = 15 || 05 * 04 = 20 || 05 * 05 = 25 || 05 * 06 = 30 || 05 * 07 = 35 || 05 * 08 = 40 || 05 * 09 = 45</t>
-  </si>
-  <si>
-    <t>06 * 01 = 06 || 06 * 02 = 12 || 06 * 03 = 18 || 06 * 04 = 24 || 06 * 05 = 30 || 06 * 06 = 36 || 06 * 07 = 42 || 06 * 08 = 48 || 06 * 09 = 54</t>
-  </si>
-  <si>
-    <t>07 * 01 = 07 || 07 * 02 = 14 || 07 * 03 = 21 || 07 * 04 = 28 || 07 * 05 = 35 || 07 * 06 = 42 || 07 * 07 = 49 || 07 * 08 = 56 || 07 * 09 = 63</t>
-  </si>
-  <si>
-    <t>08 * 01 = 08 || 08 * 02 = 16 || 08 * 03 = 24 || 08 * 04 = 32 || 08 * 05 = 40 || 08 * 06 = 48 || 08 * 07 = 56 || 08 * 08 = 64 || 08 * 09 = 72</t>
-  </si>
-  <si>
-    <t>09 * 01 = 09 || 09 * 02 = 18 || 09 * 03 = 27 || 09 * 04 = 36 || 09 * 05 = 45 || 09 * 06 = 54 || 09 * 07 = 63 || 09 * 08 = 72 || 09 * 09 = 81</t>
+    <t>ユーザー名「name」を登録しました</t>
+  </si>
+  <si>
+    <t>nameの手は「パー」</t>
+  </si>
+  <si>
+    <t>相手の手は「グー」</t>
+  </si>
+  <si>
+    <t>勝つまでにかかった合計回数は1回です</t>
   </si>
   <si>
     <t>　 【詳細】半角文字が入力された場合、削除する。</t>
@@ -509,20 +432,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>出力値例↓↓</t>
-    <rPh sb="3" eb="4">
-      <t xml:space="preserve">レイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力例↓↓だった場合</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">ニュウリョクレイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・入力される値は右記の表のどれかが入力され、入力回数の縛りはありません</t>
     <rPh sb="1" eb="2">
       <t xml:space="preserve">ニュウリョクサレルアタイハ </t>
@@ -603,10 +512,6 @@
     <t>ディスプレイの残り台数は2台です</t>
   </si>
   <si>
-    <t>・拡張for文・Switch文を使用すること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・例：テレビorディスプレイと受け取った場合〇〇に受け取った値が入る→「〇〇の残り台数は9台です」</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -615,7 +520,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※テレビが入力された場合フラグが立つようにしてください</t>
+    <t>入力例↓↓</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ニュウリョクレイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力例↓↓</t>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">レイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・拡張for文・Switch文・条件演算子を使用すること　※普通のif文は使用不可</t>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">フツウノ </t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t xml:space="preserve">ブンハシヨウフカ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -810,6 +735,44 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t xml:space="preserve">カイギョウヲハサンデシュツリョクサレルヨウニシテクダサイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・コンソールにユーザー名を入力できるようにしてください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ユーザー名の文字数が10文字より大きい場合「名前を10文字以内にしてください」と出力してください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ユーザー名の文字数が0文字以下もしくはnullの場合「名前を入力してください」と出力してください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ユーザー名が正常な値だった場合「ユーザー名「 入力したユーザー名 」を登録しました」と出力してください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「0はグー、1：チョキ、2：パー」とすること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・じゃんけんに勝つまでループすること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・条件分岐の設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・一回ごとに自分の手と相手の手を下記の通り出力してください</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">カキノトオリ </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">シュツリョク </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -942,7 +905,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -963,9 +926,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1061,14 +1021,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>35607</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>23739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>545873</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>142429</xdr:rowOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>142428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1111,14 +1071,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>23738</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>249252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>29041</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>120585</xdr:rowOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>120584</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1240,14 +1200,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>35608</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>11869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1025547</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>27653</xdr:rowOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>27652</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1283,14 +1243,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>71214</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>615296</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>51171</xdr:rowOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>51172</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1327,13 +1287,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>15876</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>733205</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>238124</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1370,8 +1330,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FE4F84F-651E-4543-AF2C-27931D3A4840}" name="テーブル1" displayName="テーブル1" ref="K146:K153" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="K146:K153" xr:uid="{1FE4F84F-651E-4543-AF2C-27931D3A4840}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FE4F84F-651E-4543-AF2C-27931D3A4840}" name="テーブル1" displayName="テーブル1" ref="K127:K134" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="K127:K134" xr:uid="{1FE4F84F-651E-4543-AF2C-27931D3A4840}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{188B2104-222E-7B4C-A4A9-E36A3ECED376}" name="商品一覧" dataDxfId="0"/>
   </tableColumns>
@@ -1678,7 +1638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F884E44A-C8D5-3A45-8583-A72C49D2245B}">
   <dimension ref="B2:J56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27"/>
   <cols>
@@ -1703,7 +1663,7 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -1738,7 +1698,7 @@
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="4" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -1747,17 +1707,17 @@
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="6"/>
@@ -1856,17 +1816,17 @@
       </c>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="6"/>
@@ -1916,7 +1876,7 @@
     </row>
     <row r="49" spans="2:10">
       <c r="B49" s="5" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="2:10">
@@ -1930,17 +1890,17 @@
       </c>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
     </row>
     <row r="54" spans="2:10">
       <c r="B54" s="6"/>
@@ -1976,9 +1936,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A36244C-ED23-FE4A-BF37-7BD4BB0F0470}">
-  <dimension ref="A1:K205"/>
+  <dimension ref="A1:K187"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="141" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="141" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -1990,43 +1950,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="47">
-      <c r="B1" s="10" t="s">
-        <v>151</v>
+      <c r="B1" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="38">
-      <c r="B2" s="11" t="s">
-        <v>145</v>
+      <c r="B2" s="10" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="38">
-      <c r="B3" s="11" t="s">
-        <v>152</v>
+      <c r="B3" s="10" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="B4" s="9" t="s">
-        <v>146</v>
+      <c r="B4" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="2" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="2" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="2" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="2" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2036,32 +1996,32 @@
     </row>
     <row r="11" spans="1:2">
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="B17" s="9" t="s">
-        <v>142</v>
+      <c r="B17" s="8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2071,12 +2031,12 @@
     </row>
     <row r="27" spans="1:2">
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="B29" s="9" t="s">
-        <v>142</v>
+      <c r="B29" s="8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2086,547 +2046,452 @@
     </row>
     <row r="41" spans="1:3">
       <c r="B41" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="B43" s="2" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" s="2" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="B45" s="2" t="s">
-        <v>56</v>
+      <c r="C45" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="B46" s="2" t="s">
-        <v>68</v>
+      <c r="C46" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="C47" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="C48" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="C51" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="C52" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="C53" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="2" t="s">
-        <v>66</v>
+      <c r="C55" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="C56" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="C57" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="C58" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="2" t="s">
-        <v>67</v>
+      <c r="C60" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="C61" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="C62" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="C63" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="2" t="s">
-        <v>69</v>
+      <c r="C65" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="C66" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="C67" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3">
-      <c r="B71" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="C70" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="C73" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1">
         <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="B87" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="B89" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="B90" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="B91" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="B92" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="B93" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="B94" s="2" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="B95" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="B107" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="B109" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="B121" s="3"/>
+      <c r="D121" s="3"/>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="1">
+        <v>6</v>
+      </c>
+      <c r="B122" s="3"/>
+      <c r="D122" s="3"/>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="B123" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D123" s="3"/>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="B124" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="B125" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="B126" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="B127" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="B128" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K128" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11">
+      <c r="B129" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K129" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11">
+      <c r="C130" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K130" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11">
+      <c r="B131" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K131" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11">
+      <c r="K132" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11">
+      <c r="B133" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K133" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11">
+      <c r="B134" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K134" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11">
+      <c r="B136" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11">
+      <c r="B137" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11">
+      <c r="B138" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11">
+      <c r="B139" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11">
+      <c r="B140" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="B96" s="2" t="s">
+    <row r="141" spans="2:11">
+      <c r="B141" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="B97" s="2" t="s">
+    <row r="142" spans="2:11">
+      <c r="B142" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="B98" s="2" t="s">
+    <row r="143" spans="2:11">
+      <c r="B143" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="B99" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="B101" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2">
-      <c r="B118" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2">
-      <c r="B121" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2">
-      <c r="B122" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2">
-      <c r="B123" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2">
-      <c r="B127" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="B139" s="3"/>
-      <c r="D139" s="3"/>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="1">
-        <v>6</v>
-      </c>
-      <c r="B140" s="3"/>
-      <c r="D140" s="3"/>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="B141" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D141" s="3"/>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="B142" s="2" t="s">
+    <row r="144" spans="2:11">
+      <c r="B144" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="B146" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="B160" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="8"/>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="8"/>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="8"/>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="8"/>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" s="2" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="B143" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="C144" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="145" spans="2:11">
-      <c r="B145" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="146" spans="2:11">
-      <c r="B146" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K146" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="147" spans="2:11">
-      <c r="B147" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K147" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="148" spans="2:11">
-      <c r="B148" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K148" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="149" spans="2:11">
-      <c r="C149" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K149" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="150" spans="2:11">
-      <c r="B150" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K150" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="151" spans="2:11">
-      <c r="K151" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="152" spans="2:11">
-      <c r="B152" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K152" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="153" spans="2:11">
-      <c r="B153" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K153" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="154" spans="2:11">
-      <c r="B154" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="155" spans="2:11">
-      <c r="B155" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="156" spans="2:11">
-      <c r="B156" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="157" spans="2:11">
-      <c r="B157" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="158" spans="2:11">
-      <c r="B158" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="159" spans="2:11">
-      <c r="B159" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="160" spans="2:11">
-      <c r="B160" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2">
-      <c r="B161" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2">
-      <c r="B162" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2">
-      <c r="B164" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="B178" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="B179" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="B180" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="B181" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="B182" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="B183" s="9"/>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="B184" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="B185" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="B186" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="B187" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="B188" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="B189" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="B190" s="9"/>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="B191" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="B192" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2">
-      <c r="B193" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="194" spans="2:2">
-      <c r="B194" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="195" spans="2:2">
-      <c r="B195" s="9"/>
-    </row>
-    <row r="196" spans="2:2">
-      <c r="B196" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="197" spans="2:2">
-      <c r="B197" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="198" spans="2:2">
-      <c r="B198" s="9"/>
-    </row>
-    <row r="199" spans="2:2">
-      <c r="B199" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="200" spans="2:2">
-      <c r="B200" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="201" spans="2:2">
-      <c r="B201" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="202" spans="2:2">
-      <c r="B202" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="203" spans="2:2">
-      <c r="B203" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="205" spans="2:2">
-      <c r="B205" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/curriculum_Excel/Bカリキュラム問題.xlsx
+++ b/curriculum_Excel/Bカリキュラム問題.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smba/Desktop/ドラ用/新カリキュラム作成課題/新カリキュラムエクセル/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE33E317-7D7C-264C-A35E-4D2B0A4BBC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D547D202-25A8-8B4B-901E-4CDD2FA2F382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{3319C69D-1188-A141-84CF-D86B3A2B96B7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{3319C69D-1188-A141-84CF-D86B3A2B96B7}"/>
   </bookViews>
   <sheets>
     <sheet name="問題をするにあたって" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="139">
   <si>
     <t>①.処理の概要と詳細を必ずクラスやメソッドごとに書く</t>
   </si>
@@ -375,9 +375,6 @@
     <t>入力した商品の残り台数が出力されるシステムを下記の条件で作成してください</t>
   </si>
   <si>
-    <t>パソコン、冷蔵庫、扇風機、洗濯機、加湿器、テレビ、ディスプレイ、その他商品</t>
-  </si>
-  <si>
     <t>パソコン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -776,12 +773,30 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>パソコン、冷蔵庫、扇風機、洗濯機、加湿器、テレビ、ディスプレイ、その他商品</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラミング作成後に下記URLのリンクから理解度テストを実施してください</t>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">カキ </t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t xml:space="preserve">リカイドテスト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://forms.gle/gJdzD4S21W5DWhFd6</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -870,6 +885,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -900,12 +924,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -939,11 +966,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -1021,14 +1052,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>35607</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>23739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>545873</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>142428</xdr:rowOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>142429</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1071,14 +1102,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>23738</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>249252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>29041</xdr:colOff>
-      <xdr:row>205</xdr:row>
-      <xdr:rowOff>120584</xdr:rowOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>120585</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1114,14 +1145,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>35607</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>106822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>873145</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>138010</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>138011</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1157,14 +1188,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>52901</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>96712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1042840</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>121721</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>121722</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1200,13 +1231,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>35608</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>11869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1025547</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>27652</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1243,14 +1274,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>71214</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>615296</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>51172</xdr:rowOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>51171</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1287,13 +1318,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>15876</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>733205</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>238124</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1330,8 +1361,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FE4F84F-651E-4543-AF2C-27931D3A4840}" name="テーブル1" displayName="テーブル1" ref="K127:K134" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="K127:K134" xr:uid="{1FE4F84F-651E-4543-AF2C-27931D3A4840}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FE4F84F-651E-4543-AF2C-27931D3A4840}" name="テーブル1" displayName="テーブル1" ref="K130:K137" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="K130:K137" xr:uid="{1FE4F84F-651E-4543-AF2C-27931D3A4840}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{188B2104-222E-7B4C-A4A9-E36A3ECED376}" name="商品一覧" dataDxfId="0"/>
   </tableColumns>
@@ -1638,7 +1669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F884E44A-C8D5-3A45-8583-A72C49D2245B}">
   <dimension ref="B2:J56"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27"/>
   <cols>
@@ -1663,7 +1694,7 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -1707,17 +1738,17 @@
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="6"/>
@@ -1816,17 +1847,17 @@
       </c>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="6"/>
@@ -1876,7 +1907,7 @@
     </row>
     <row r="49" spans="2:10">
       <c r="B49" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="2:10">
@@ -1890,17 +1921,17 @@
       </c>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
     </row>
     <row r="54" spans="2:10">
       <c r="B54" s="6"/>
@@ -1936,9 +1967,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A36244C-ED23-FE4A-BF37-7BD4BB0F0470}">
-  <dimension ref="A1:K187"/>
+  <dimension ref="A1:K190"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="141" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="141" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -1951,514 +1982,511 @@
   <sheetData>
     <row r="1" spans="1:2" ht="47">
       <c r="B1" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="38">
       <c r="B2" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="38">
       <c r="B3" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="38">
+      <c r="B10" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="22" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="2" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="B17" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1">
+      <c r="B17" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="B27" s="2" t="s">
+    <row r="30" spans="1:2">
+      <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="B29" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
+    <row r="32" spans="1:2">
+      <c r="B32" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
         <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="B41" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="B42" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="B43" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" s="2" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="C45" s="2" t="s">
+      <c r="B45" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="C48" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="C46" s="2" t="s">
+    <row r="49" spans="2:3">
+      <c r="C49" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="C47" s="2" t="s">
+    <row r="50" spans="2:3">
+      <c r="C50" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="2" t="s">
+    <row r="52" spans="2:3">
+      <c r="B52" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
-      <c r="C51" s="2" t="s">
+    <row r="54" spans="2:3">
+      <c r="C54" s="2" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="C52" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3">
-      <c r="B54" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="C55" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="C58" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
-      <c r="C56" s="2" t="s">
+    <row r="59" spans="2:3">
+      <c r="C59" s="2" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="C57" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="C60" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="C63" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
-      <c r="C61" s="2" t="s">
+    <row r="64" spans="2:3">
+      <c r="C64" s="2" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="C62" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="C65" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="C68" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
-      <c r="C66" s="2" t="s">
+    <row r="69" spans="2:3">
+      <c r="C69" s="2" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="C67" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3">
-      <c r="B69" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="C70" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="C73" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="C76" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="2:3">
-      <c r="B77" s="8" t="s">
+    <row r="80" spans="2:3">
+      <c r="B80" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="B96" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="B98" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="B110" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="B112" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="B93" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="B95" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="B107" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="B109" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="B121" s="3"/>
-      <c r="D121" s="3"/>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122" s="1">
+    <row r="124" spans="1:4">
+      <c r="B124" s="3"/>
+      <c r="D124" s="3"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>6</v>
       </c>
-      <c r="B122" s="3"/>
-      <c r="D122" s="3"/>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="B123" s="2" t="s">
+      <c r="B125" s="3"/>
+      <c r="D125" s="3"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="B126" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D123" s="3"/>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="B124" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="B125" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="B126" s="2" t="s">
+      <c r="D126" s="3"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="B127" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="B128" s="2" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="B127" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K127" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="B128" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K128" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="129" spans="2:11">
       <c r="B129" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K129" s="7" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="130" spans="2:11">
-      <c r="C130" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K130" s="7" t="s">
-        <v>68</v>
+      <c r="B130" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="131" spans="2:11">
       <c r="B131" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K131" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132" spans="2:11">
+      <c r="B132" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="K132" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="133" spans="2:11">
-      <c r="B133" s="2" t="s">
-        <v>89</v>
+      <c r="C133" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="K133" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="134" spans="2:11">
       <c r="B134" s="2" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="K134" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11">
+      <c r="K135" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="136" spans="2:11">
       <c r="B136" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="K136" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="137" spans="2:11">
       <c r="B137" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="138" spans="2:11">
-      <c r="B138" s="2" t="s">
-        <v>81</v>
+        <v>136</v>
+      </c>
+      <c r="K137" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="139" spans="2:11">
       <c r="B139" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="140" spans="2:11">
       <c r="B140" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="141" spans="2:11">
       <c r="B141" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="142" spans="2:11">
       <c r="B142" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="143" spans="2:11">
       <c r="B143" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="144" spans="2:11">
       <c r="B144" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
       <c r="B146" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
-      <c r="B160" s="8" t="s">
+    <row r="163" spans="1:2">
+      <c r="B163" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="B164" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="B165" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="161" spans="2:2">
-      <c r="B161" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2">
-      <c r="B162" s="8" t="s">
+    <row r="166" spans="1:2">
+      <c r="B166" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="163" spans="2:2">
-      <c r="B163" s="8" t="s">
+    <row r="167" spans="1:2">
+      <c r="B167" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="164" spans="2:2">
-      <c r="B164" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2">
-      <c r="B165" s="8"/>
-    </row>
-    <row r="166" spans="2:2">
-      <c r="B166" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2">
-      <c r="B167" s="8" t="s">
+    <row r="168" spans="1:2">
+      <c r="B168" s="8"/>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="B169" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="B170" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="B171" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="168" spans="2:2">
-      <c r="B168" s="8" t="s">
+    <row r="172" spans="1:2">
+      <c r="B172" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="2:2">
-      <c r="B169" s="8" t="s">
+    <row r="173" spans="1:2">
+      <c r="B173" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="170" spans="2:2">
-      <c r="B170" s="8" t="s">
+    <row r="174" spans="1:2">
+      <c r="B174" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="171" spans="2:2">
-      <c r="B171" s="8" t="s">
+    <row r="175" spans="1:2">
+      <c r="B175" s="8"/>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="B176" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="172" spans="2:2">
-      <c r="B172" s="8"/>
-    </row>
-    <row r="173" spans="2:2">
-      <c r="B173" s="8" t="s">
+    <row r="177" spans="2:2">
+      <c r="B177" s="8" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="174" spans="2:2">
-      <c r="B174" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2">
-      <c r="B175" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2">
-      <c r="B176" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2">
-      <c r="B177" s="8"/>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" s="8" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="8" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="180" spans="2:2">
@@ -2466,41 +2494,57 @@
     </row>
     <row r="181" spans="2:2">
       <c r="B181" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="8" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="183" spans="2:2">
-      <c r="B183" s="8" t="s">
-        <v>109</v>
-      </c>
+      <c r="B183" s="8"/>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="8" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="187" spans="2:2">
-      <c r="B187" s="2" t="s">
-        <v>114</v>
+      <c r="B187" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{CFC78E84-D000-D34A-BA54-509ABAEFDF91}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/curriculum_Excel/Bカリキュラム問題.xlsx
+++ b/curriculum_Excel/Bカリキュラム問題.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smba/Desktop/ドラ用/新カリキュラム作成課題/新カリキュラムエクセル/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D547D202-25A8-8B4B-901E-4CDD2FA2F382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC60F22-B16F-A44C-A3A0-1BC57C928851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{3319C69D-1188-A141-84CF-D86B3A2B96B7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{3319C69D-1188-A141-84CF-D86B3A2B96B7}"/>
   </bookViews>
   <sheets>
     <sheet name="問題をするにあたって" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="140">
   <si>
     <t>①.処理の概要と詳細を必ずクラスやメソッドごとに書く</t>
   </si>
@@ -509,10 +509,6 @@
     <t>ディスプレイの残り台数は2台です</t>
   </si>
   <si>
-    <t>・例：テレビorディスプレイと受け取った場合〇〇に受け取った値が入る→「〇〇の残り台数は9台です」</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・Switch文内でテレビとディスプレイは続けて書くようにしてください、条件演算子で出力される値を変更してください</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -789,6 +785,29 @@
   </si>
   <si>
     <t>https://forms.gle/gJdzD4S21W5DWhFd6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・テレビとディスプレイは同じ商品扱いとし、ディスプレイが出た場合は最大個数の11個からランダムで出た数字を引いて出力してください </t>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">オナジショウヒンアツカイトスルノデ </t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t xml:space="preserve">サイダイコスウ </t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t xml:space="preserve">コ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">スウジヲヒイテクダサイ </t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t xml:space="preserve">シュツリョクシテクダサイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・例：テレビと受け取った場合、→「テレビの残り台数は〇〇台です」※〇〇はランダムで出た数字</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1052,14 +1071,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>35607</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>23739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>545873</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>142429</xdr:rowOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>142428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1102,14 +1121,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>23738</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>249252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>29041</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>120585</xdr:rowOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>120584</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1361,8 +1380,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FE4F84F-651E-4543-AF2C-27931D3A4840}" name="テーブル1" displayName="テーブル1" ref="K130:K137" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="K130:K137" xr:uid="{1FE4F84F-651E-4543-AF2C-27931D3A4840}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FE4F84F-651E-4543-AF2C-27931D3A4840}" name="テーブル1" displayName="テーブル1" ref="K131:K138" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="K131:K138" xr:uid="{1FE4F84F-651E-4543-AF2C-27931D3A4840}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{188B2104-222E-7B4C-A4A9-E36A3ECED376}" name="商品一覧" dataDxfId="0"/>
   </tableColumns>
@@ -1694,7 +1713,7 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -1907,7 +1926,7 @@
     </row>
     <row r="49" spans="2:10">
       <c r="B49" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="2:10">
@@ -1967,7 +1986,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A36244C-ED23-FE4A-BF37-7BD4BB0F0470}">
-  <dimension ref="A1:K190"/>
+  <dimension ref="A1:K191"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="141" workbookViewId="0"/>
   </sheetViews>
@@ -1982,52 +2001,52 @@
   <sheetData>
     <row r="1" spans="1:2" ht="47">
       <c r="B1" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="38">
       <c r="B2" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="38">
       <c r="B3" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="38">
       <c r="B10" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="22" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2042,27 +2061,27 @@
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="B17" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2077,7 +2096,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="B32" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2092,17 +2111,17 @@
     </row>
     <row r="45" spans="1:3">
       <c r="B45" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="B47" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2122,7 +2141,7 @@
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="2:3">
@@ -2227,7 +2246,7 @@
     </row>
     <row r="80" spans="2:3">
       <c r="B80" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2242,7 +2261,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="B98" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2257,7 +2276,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="B112" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2279,260 +2298,265 @@
     </row>
     <row r="127" spans="1:4">
       <c r="B127" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="B128" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="129" spans="2:11">
       <c r="B129" s="2" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130" spans="2:11">
       <c r="B130" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K130" s="2" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
     </row>
     <row r="131" spans="2:11">
       <c r="B131" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K131" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="132" spans="2:11">
       <c r="B132" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K132" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11">
+      <c r="B133" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K132" s="7" t="s">
+      <c r="K133" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="133" spans="2:11">
-      <c r="C133" s="2" t="s">
+    <row r="134" spans="2:11">
+      <c r="C134" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K133" s="7" t="s">
+      <c r="K134" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="134" spans="2:11">
-      <c r="B134" s="2" t="s">
+    <row r="135" spans="2:11">
+      <c r="B135" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K134" s="7" t="s">
+      <c r="K135" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="135" spans="2:11">
-      <c r="K135" s="7" t="s">
+    <row r="136" spans="2:11">
+      <c r="K136" s="7" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="136" spans="2:11">
-      <c r="B136" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K136" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="137" spans="2:11">
       <c r="B137" s="2" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="K137" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11">
+      <c r="B138" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K138" s="7" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="139" spans="2:11">
-      <c r="B139" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="140" spans="2:11">
       <c r="B140" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="141" spans="2:11">
       <c r="B141" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="142" spans="2:11">
       <c r="B142" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="143" spans="2:11">
       <c r="B143" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="144" spans="2:11">
       <c r="B144" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="1">
+    <row r="150" spans="2:2">
+      <c r="B150" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1">
         <v>7</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="B163" s="8" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="B164" s="8" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="B165" s="8" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="B166" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="B167" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="B168" s="8"/>
+      <c r="B168" s="8" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="B169" s="8" t="s">
-        <v>111</v>
-      </c>
+      <c r="B169" s="8"/>
     </row>
     <row r="170" spans="1:2">
       <c r="B170" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="B171" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="B172" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="B173" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="B174" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="B175" s="8"/>
+      <c r="B175" s="8" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="B176" s="8" t="s">
-        <v>103</v>
-      </c>
+      <c r="B176" s="8"/>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="180" spans="2:2">
-      <c r="B180" s="8"/>
+      <c r="B180" s="8" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="181" spans="2:2">
-      <c r="B181" s="8" t="s">
-        <v>95</v>
-      </c>
+      <c r="B181" s="8"/>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="183" spans="2:2">
-      <c r="B183" s="8"/>
+      <c r="B183" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="184" spans="2:2">
-      <c r="B184" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="B184" s="8"/>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" s="8" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="190" spans="2:2">
-      <c r="B190" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
